--- a/metadata/cedar-histology/todo/Vanderbilt TMC (Histology).xlsx
+++ b/metadata/cedar-histology/todo/Vanderbilt TMC (Histology).xlsx
@@ -13,8 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -419,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,15 +449,10 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Modified progressive staining</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -487,15 +481,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Row-by-row</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Row-by-row</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -519,15 +508,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Progressive staining</t>
+          <t>Column-by-column</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Column-by-column</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -551,11 +535,6 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Regressive staining</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>Snake-by-rows</t>
         </is>
       </c>
@@ -576,7 +555,7 @@
           <t>Right-and-down</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Snake-by-columns</t>
         </is>
@@ -721,7 +700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +743,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -783,7 +762,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -802,7 +781,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -821,7 +800,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -840,7 +819,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -854,38 +833,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM222.QPXQ.829</t>
+          <t>HBM234.DVFT.238</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM222.QPXQ.829</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM234.DVFT.238</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM222.QPXQ.829</t>
+          <t>HBM234.DVFT.238</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM222.QPXQ.829</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM234.DVFT.238</t>
         </is>
       </c>
     </row>
@@ -897,7 +880,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -911,19 +894,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM234.DVFT.238</t>
+          <t>HBM324.QHMG.745</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.DVFT.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
         </is>
       </c>
     </row>
@@ -935,7 +918,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -954,7 +937,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -973,7 +956,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -992,7 +975,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1006,45 +989,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM324.QHMG.745</t>
+          <t>HBM452.NPLF.254</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM324.QHMG.745</t>
+          <t>HBM452.NPLF.254</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM324.QHMG.745</t>
+          <t>HBM452.NPLF.254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1056,45 +1043,49 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM452.NPLF.254</t>
+          <t>HBM483.SMQP.732</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM452.NPLF.254</t>
+          <t>HBM483.SMQP.732</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1097,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1120,19 +1111,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM483.SMQP.732</t>
+          <t>HBM592.QJSH.767</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.QJSH.767</t>
         </is>
       </c>
     </row>
@@ -1182,10 +1177,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -1201,7 +1200,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1212,29 +1211,45 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HBM626.RRZB.432</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.RRZB.432</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E25"/>
-  <dataValidations count="7">
-    <dataValidation sqref="D2 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3 D12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E26"/>
+  <dataValidations count="6">
+    <dataValidation sqref="D2 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$19</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D13" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$11</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9 D14 D18 D20 D22 D24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D8 D12 D16 D19 D22 D25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$4</formula1>
+    <dataValidation sqref="D5 D13" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$5</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$5</formula1>
+    <dataValidation sqref="D6 D9 D14 D17 D20 D23 D26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D8 D10 D17 D19 D21 D23 D25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$3</formula1>
+    <dataValidation sqref="D7 D15 D18 D21 D24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1247,7 +1262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,49 +1292,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM222.QPXQ.829</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM222.QPXQ.829</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM324.QHMG.745</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
-  <dataValidations count="1">
-    <dataValidation sqref="C2 C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/metadata/cedar-histology/todo/Vanderbilt TMC (Histology).xlsx
+++ b/metadata/cedar-histology/todo/Vanderbilt TMC (Histology).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,30 +429,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>NanoZoomer S210</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NanoZoomer S210</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>Left-and-up</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Left-and-up</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -461,41 +456,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Leica Biosystems</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right-and-up</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Row-by-row</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sublimator</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Right-and-up</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Row-by-row</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sublimator</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Not applicable</t>
@@ -503,187 +498,182 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Column-by-column</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Column-by-column</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EVOS M7000</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EVOS M7000</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>Left-and-down</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Left-and-down</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Snake-by-rows</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chromium Controller</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chromium Controller</t>
+          <t>Roche Diagnostics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Roche Diagnostics</t>
+          <t>Right-and-down</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Right-and-down</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Snake-by-columns</t>
         </is>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>HTX Technologies</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>10x Genomics</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Hamamatsu</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chromium X</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chromium X</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>Ionpath</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AutoStainer XL</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AutoStainer XL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>Akoya Biosciences</t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Visium CytAssist</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Visium CytAssist</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>SunChrom</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>SunCollect Sprayer</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>M3+ Sprayer</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Discovery Ultra</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>ST5020 Multistainer</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Chromium iX</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Chromium Connect</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>M5 Sprayer</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>TM-Sprayer</t>
         </is>
@@ -700,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,14 +828,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
+          <t>scan_direction</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -861,7 +847,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -875,19 +861,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM234.DVFT.238</t>
+          <t>HBM324.QHMG.745</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.DVFT.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
         </is>
       </c>
     </row>
@@ -899,7 +885,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -918,7 +904,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -937,7 +923,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -956,7 +942,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -970,19 +956,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM324.QHMG.745</t>
+          <t>HBM452.NPLF.254</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.QHMG.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
         </is>
       </c>
     </row>
@@ -994,14 +980,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1012,7 +994,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM452.NPLF.254</t>
+          <t>HBM483.SMQP.732</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1024,14 +1006,14 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM452.NPLF.254</t>
+          <t>HBM483.SMQP.732</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1043,213 +1025,103 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.NPLF.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM483.SMQP.732</t>
+          <t>HBM592.QJSH.767</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
+          <t>scan_direction</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.QJSH.767</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM483.SMQP.732</t>
+          <t>HBM592.QJSH.767</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.QJSH.767</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM483.SMQP.732</t>
+          <t>HBM626.RRZB.432</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM483.SMQP.732</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.RRZB.432</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM592.QJSH.767</t>
+          <t>HBM626.RRZB.432</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.QJSH.767</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HBM592.QJSH.767</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.QJSH.767</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HBM592.QJSH.767</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.QJSH.767</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>HBM626.RRZB.432</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM626.RRZB.432</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HBM626.RRZB.432</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.RRZB.432</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HBM626.RRZB.432</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.RRZB.432</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
-  <dataValidations count="6">
-    <dataValidation sqref="D2 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$19</formula1>
+  <autoFilter ref="A1:E21"/>
+  <dataValidations count="5">
+    <dataValidation sqref="D2 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$19</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$11</formula1>
+    <dataValidation sqref="D3 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$11</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8 D12 D16 D19 D22 D25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D7 D11 D14 D16 D18 D20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5 D12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D13" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D9 D14 D17 D20 D23 D26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D15 D18 D21 D24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$2</formula1>
+    <dataValidation sqref="D6 D8 D13 D15 D17 D19 D21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
